--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.174425666666667</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H2">
-        <v>18.523277</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I2">
-        <v>0.4796039576068858</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J2">
-        <v>0.5423873011998577</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.153988</v>
+        <v>0.0009183333333333334</v>
       </c>
       <c r="N2">
-        <v>0.461964</v>
+        <v>0.002755</v>
       </c>
       <c r="O2">
-        <v>0.7159318881850409</v>
+        <v>0.005182370534790543</v>
       </c>
       <c r="P2">
-        <v>0.7908135229379472</v>
+        <v>0.005409247358696911</v>
       </c>
       <c r="Q2">
-        <v>0.9507874595586666</v>
+        <v>0.001542353077777778</v>
       </c>
       <c r="R2">
-        <v>8.557087136028001</v>
+        <v>0.0138811777</v>
       </c>
       <c r="S2">
-        <v>0.3433637669505161</v>
+        <v>0.001951841634152659</v>
       </c>
       <c r="T2">
-        <v>0.4289272124586649</v>
+        <v>0.002124781073232777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.174425666666667</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H3">
-        <v>18.523277</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I3">
-        <v>0.4796039576068858</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J3">
-        <v>0.5423873011998577</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.0610995</v>
+        <v>0.153988</v>
       </c>
       <c r="N3">
-        <v>0.122199</v>
+        <v>0.461964</v>
       </c>
       <c r="O3">
-        <v>0.2840681118149591</v>
+        <v>0.8689904253117887</v>
       </c>
       <c r="P3">
-        <v>0.2091864770620529</v>
+        <v>0.9070335923096405</v>
       </c>
       <c r="Q3">
-        <v>0.3772543210205</v>
+        <v>0.2586248991733333</v>
       </c>
       <c r="R3">
-        <v>2.263525926123</v>
+        <v>2.32762409256</v>
       </c>
       <c r="S3">
-        <v>0.1362401906563697</v>
+        <v>0.3272887726605078</v>
       </c>
       <c r="T3">
-        <v>0.1134600887411928</v>
+        <v>0.3562876093339043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.228940333333334</v>
+        <v>1.679513333333333</v>
       </c>
       <c r="H4">
-        <v>6.686821</v>
+        <v>5.038539999999999</v>
       </c>
       <c r="I4">
-        <v>0.1731349056329954</v>
+        <v>0.376631045782902</v>
       </c>
       <c r="J4">
-        <v>0.1957994147469982</v>
+        <v>0.3928053077137587</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.153988</v>
+        <v>0.022297</v>
       </c>
       <c r="N4">
-        <v>0.461964</v>
+        <v>0.044594</v>
       </c>
       <c r="O4">
-        <v>0.7159318881850409</v>
+        <v>0.1258272041534207</v>
       </c>
       <c r="P4">
-        <v>0.7908135229379472</v>
+        <v>0.08755716033166246</v>
       </c>
       <c r="Q4">
-        <v>0.3432300640493333</v>
+        <v>0.03744810879333333</v>
       </c>
       <c r="R4">
-        <v>3.089070576444</v>
+        <v>0.22468865276</v>
       </c>
       <c r="S4">
-        <v>0.1239527999005693</v>
+        <v>0.04739043148824156</v>
       </c>
       <c r="T4">
-        <v>0.1548408249652619</v>
+        <v>0.03439291730662158</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>6.686821</v>
       </c>
       <c r="I5">
-        <v>0.1731349056329954</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J5">
-        <v>0.1957994147469982</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.0610995</v>
+        <v>0.0009183333333333334</v>
       </c>
       <c r="N5">
-        <v>0.122199</v>
+        <v>0.002755</v>
       </c>
       <c r="O5">
-        <v>0.2840681118149591</v>
+        <v>0.005182370534790543</v>
       </c>
       <c r="P5">
-        <v>0.2091864770620529</v>
+        <v>0.005409247358696911</v>
       </c>
       <c r="Q5">
-        <v>0.1361871398965</v>
+        <v>0.002046910206111112</v>
       </c>
       <c r="R5">
-        <v>0.817122839379</v>
+        <v>0.018422191855</v>
       </c>
       <c r="S5">
-        <v>0.04918210573242612</v>
+        <v>0.002590356656477138</v>
       </c>
       <c r="T5">
-        <v>0.04095858978173633</v>
+        <v>0.002819870577765676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.470643</v>
+        <v>2.228940333333334</v>
       </c>
       <c r="H6">
-        <v>8.941286</v>
+        <v>6.686821</v>
       </c>
       <c r="I6">
-        <v>0.3472611367601188</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J6">
-        <v>0.2618132840531441</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>0.461964</v>
       </c>
       <c r="O6">
-        <v>0.7159318881850409</v>
+        <v>0.8689904253117887</v>
       </c>
       <c r="P6">
-        <v>0.7908135229379472</v>
+        <v>0.9070335923096405</v>
       </c>
       <c r="Q6">
-        <v>0.688425374284</v>
+        <v>0.3432300640493333</v>
       </c>
       <c r="R6">
-        <v>4.130552245704</v>
+        <v>3.089070576444</v>
       </c>
       <c r="S6">
-        <v>0.2486153213339556</v>
+        <v>0.434356269492851</v>
       </c>
       <c r="T6">
-        <v>0.2070454855140203</v>
+        <v>0.4728416303400881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.470643</v>
+        <v>2.228940333333334</v>
       </c>
       <c r="H7">
-        <v>8.941286</v>
+        <v>6.686821</v>
       </c>
       <c r="I7">
-        <v>0.3472611367601188</v>
+        <v>0.4998401096732527</v>
       </c>
       <c r="J7">
-        <v>0.2618132840531441</v>
+        <v>0.5213055330575571</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +862,214 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.0610995</v>
+        <v>0.022297</v>
       </c>
       <c r="N7">
-        <v>0.122199</v>
+        <v>0.044594</v>
       </c>
       <c r="O7">
-        <v>0.2840681118149591</v>
+        <v>0.1258272041534207</v>
       </c>
       <c r="P7">
-        <v>0.2091864770620529</v>
+        <v>0.08755716033166246</v>
       </c>
       <c r="Q7">
-        <v>0.2731540519785</v>
+        <v>0.04969868261233334</v>
       </c>
       <c r="R7">
-        <v>1.092616207914</v>
+        <v>0.298192095674</v>
       </c>
       <c r="S7">
-        <v>0.09864581542616321</v>
+        <v>0.06289348352392458</v>
       </c>
       <c r="T7">
-        <v>0.05476779853912377</v>
+        <v>0.04564403213970329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.550853</v>
+      </c>
+      <c r="H8">
+        <v>1.101706</v>
+      </c>
+      <c r="I8">
+        <v>0.1235288445438454</v>
+      </c>
+      <c r="J8">
+        <v>0.08588915922868416</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.0009183333333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.002755</v>
+      </c>
+      <c r="O8">
+        <v>0.005182370534790543</v>
+      </c>
+      <c r="P8">
+        <v>0.005409247358696911</v>
+      </c>
+      <c r="Q8">
+        <v>0.0005058666716666667</v>
+      </c>
+      <c r="R8">
+        <v>0.00303520003</v>
+      </c>
+      <c r="S8">
+        <v>0.0006401722441607459</v>
+      </c>
+      <c r="T8">
+        <v>0.0004645957076984583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.550853</v>
+      </c>
+      <c r="H9">
+        <v>1.101706</v>
+      </c>
+      <c r="I9">
+        <v>0.1235288445438454</v>
+      </c>
+      <c r="J9">
+        <v>0.08588915922868416</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.153988</v>
+      </c>
+      <c r="N9">
+        <v>0.461964</v>
+      </c>
+      <c r="O9">
+        <v>0.8689904253117887</v>
+      </c>
+      <c r="P9">
+        <v>0.9070335923096405</v>
+      </c>
+      <c r="Q9">
+        <v>0.08482475176399999</v>
+      </c>
+      <c r="R9">
+        <v>0.508948510584</v>
+      </c>
+      <c r="S9">
+        <v>0.10734538315843</v>
+      </c>
+      <c r="T9">
+        <v>0.07790435263564811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.550853</v>
+      </c>
+      <c r="H10">
+        <v>1.101706</v>
+      </c>
+      <c r="I10">
+        <v>0.1235288445438454</v>
+      </c>
+      <c r="J10">
+        <v>0.08588915922868416</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.022297</v>
+      </c>
+      <c r="N10">
+        <v>0.044594</v>
+      </c>
+      <c r="O10">
+        <v>0.1258272041534207</v>
+      </c>
+      <c r="P10">
+        <v>0.08755716033166246</v>
+      </c>
+      <c r="Q10">
+        <v>0.012282369341</v>
+      </c>
+      <c r="R10">
+        <v>0.04912947736400001</v>
+      </c>
+      <c r="S10">
+        <v>0.01554328914125461</v>
+      </c>
+      <c r="T10">
+        <v>0.007520210885337586</v>
       </c>
     </row>
   </sheetData>
